--- a/Code/Results/Cases/Case_3_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_120/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.077323151521909</v>
+        <v>1.096773137147352</v>
       </c>
       <c r="C2">
-        <v>0.3524020595889681</v>
+        <v>0.1539609373135704</v>
       </c>
       <c r="D2">
-        <v>0.06480775418274476</v>
+        <v>0.1578897478055623</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7505066358358121</v>
+        <v>1.51453054433793</v>
       </c>
       <c r="G2">
-        <v>0.0008053427536357466</v>
+        <v>0.00246849754527558</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3697976049293032</v>
+        <v>0.9084574317527583</v>
       </c>
       <c r="J2">
-        <v>0.07154804645336377</v>
+        <v>0.183131137133727</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2165873015992261</v>
+        <v>0.3672861355196133</v>
       </c>
       <c r="M2">
-        <v>0.3895851446722247</v>
+        <v>0.3026410078799415</v>
       </c>
       <c r="N2">
-        <v>0.8579046644770756</v>
+        <v>1.549546798466331</v>
       </c>
       <c r="O2">
-        <v>1.912373977253367</v>
+        <v>3.751721784098265</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.808926169278351</v>
+        <v>1.019581426637899</v>
       </c>
       <c r="C3">
-        <v>0.3153037362459656</v>
+        <v>0.1417995896655668</v>
       </c>
       <c r="D3">
-        <v>0.06233375988844614</v>
+        <v>0.157844914693321</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7224974830729138</v>
+        <v>1.518461065220563</v>
       </c>
       <c r="G3">
-        <v>0.0008092834612343365</v>
+        <v>0.002471202567580878</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3717429005166011</v>
+        <v>0.9159447299479808</v>
       </c>
       <c r="J3">
-        <v>0.07341190231182138</v>
+        <v>0.1842172475221937</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1997747502696186</v>
+        <v>0.364461574930921</v>
       </c>
       <c r="M3">
-        <v>0.3419912591516621</v>
+        <v>0.2899106986700275</v>
       </c>
       <c r="N3">
-        <v>0.8848033593360398</v>
+        <v>1.56225450252002</v>
       </c>
       <c r="O3">
-        <v>1.839853945272552</v>
+        <v>3.762499558357945</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.644476527507862</v>
+        <v>0.972402053314255</v>
       </c>
       <c r="C4">
-        <v>0.2924863225399861</v>
+        <v>0.1342750391756766</v>
       </c>
       <c r="D4">
-        <v>0.06086153949679485</v>
+        <v>0.1578573912103813</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7066296706011244</v>
+        <v>1.521638764243704</v>
       </c>
       <c r="G4">
-        <v>0.0008117878653021809</v>
+        <v>0.00247295405883674</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3737191880826103</v>
+        <v>0.9209900786908598</v>
       </c>
       <c r="J4">
-        <v>0.07460544103732936</v>
+        <v>0.1849206735593469</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1896287714825249</v>
+        <v>0.362856146443491</v>
       </c>
       <c r="M4">
-        <v>0.312900654631953</v>
+        <v>0.2821854883637442</v>
       </c>
       <c r="N4">
-        <v>0.9023415640876635</v>
+        <v>1.570584180868352</v>
       </c>
       <c r="O4">
-        <v>1.799049161953491</v>
+        <v>3.771149280661717</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.577529535850914</v>
+        <v>0.953231986318599</v>
       </c>
       <c r="C5">
-        <v>0.2831756788193474</v>
+        <v>0.1311944232397622</v>
       </c>
       <c r="D5">
-        <v>0.06027304735393813</v>
+        <v>0.1578725727828179</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7004825748783787</v>
+        <v>1.523126026618989</v>
       </c>
       <c r="G5">
-        <v>0.0008128300860952157</v>
+        <v>0.002473690654212915</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.37471363176995</v>
+        <v>0.9231587920337887</v>
       </c>
       <c r="J5">
-        <v>0.0751041042803231</v>
+        <v>0.1852165328098456</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.185536406577171</v>
+        <v>0.3622344520923448</v>
       </c>
       <c r="M5">
-        <v>0.3010752219332247</v>
+        <v>0.2790606151399828</v>
       </c>
       <c r="N5">
-        <v>0.9097393274089072</v>
+        <v>1.574111255064992</v>
       </c>
       <c r="O5">
-        <v>1.783311804508998</v>
+        <v>3.775185225898724</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.566416565419445</v>
+        <v>0.950052230360285</v>
       </c>
       <c r="C6">
-        <v>0.2816288345237012</v>
+        <v>0.1306820297694173</v>
       </c>
       <c r="D6">
-        <v>0.06017601105635606</v>
+        <v>0.1578757046378882</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6994806986264166</v>
+        <v>1.523384604968214</v>
       </c>
       <c r="G6">
-        <v>0.0008130044635056843</v>
+        <v>0.002473814347428035</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3748899655843836</v>
+        <v>0.9235257119003144</v>
       </c>
       <c r="J6">
-        <v>0.07518764711650316</v>
+        <v>0.1852662166097043</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1848593563933534</v>
+        <v>0.3621331887405148</v>
       </c>
       <c r="M6">
-        <v>0.299113269565197</v>
+        <v>0.2785431421710172</v>
       </c>
       <c r="N6">
-        <v>0.9109826909385177</v>
+        <v>1.574704939136581</v>
       </c>
       <c r="O6">
-        <v>1.780751156322935</v>
+        <v>3.775886265045386</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.643573408614714</v>
+        <v>0.9721432908072529</v>
       </c>
       <c r="C7">
-        <v>0.2923608092925747</v>
+        <v>0.1342335506258081</v>
       </c>
       <c r="D7">
-        <v>0.06085355694308703</v>
+        <v>0.1578575550195573</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7065454960653383</v>
+        <v>1.521658043107195</v>
       </c>
       <c r="G7">
-        <v>0.0008118018328687823</v>
+        <v>0.002472963900289555</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3737318435635082</v>
+        <v>0.9210188704159599</v>
       </c>
       <c r="J7">
-        <v>0.07461211652181277</v>
+        <v>0.1849246263177271</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1895734124957471</v>
+        <v>0.3628476301702719</v>
       </c>
       <c r="M7">
-        <v>0.3127410595393272</v>
+        <v>0.2821432508893409</v>
       </c>
       <c r="N7">
-        <v>0.9024403254673388</v>
+        <v>1.570631210917696</v>
       </c>
       <c r="O7">
-        <v>1.798833373325806</v>
+        <v>3.771201641198843</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.984695500060752</v>
+        <v>1.070113303811297</v>
       </c>
       <c r="C8">
-        <v>0.3396170139025685</v>
+        <v>0.1497797066108149</v>
       </c>
       <c r="D8">
-        <v>0.06394480178344253</v>
+        <v>0.1578660089452981</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7405636443208294</v>
+        <v>1.515727220004457</v>
       </c>
       <c r="G8">
-        <v>0.0008066841161777285</v>
+        <v>0.002469411474126048</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3703014359705499</v>
+        <v>0.9109460512667624</v>
       </c>
       <c r="J8">
-        <v>0.0721804682592575</v>
+        <v>0.1834980521680434</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2107521707657583</v>
+        <v>0.3662855561311176</v>
       </c>
       <c r="M8">
-        <v>0.3731448203035441</v>
+        <v>0.2982328137322057</v>
       </c>
       <c r="N8">
-        <v>0.866963296650141</v>
+        <v>1.553819087656365</v>
       </c>
       <c r="O8">
-        <v>1.886568502342072</v>
+        <v>3.755016257005337</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.6573701176589</v>
+        <v>1.263898127792743</v>
       </c>
       <c r="C9">
-        <v>0.4321069156272301</v>
+        <v>0.1798050731755723</v>
       </c>
       <c r="D9">
-        <v>0.07039407750205839</v>
+        <v>0.1581984354951231</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8185530772537533</v>
+        <v>1.510157527044797</v>
       </c>
       <c r="G9">
-        <v>0.0007973051904036722</v>
+        <v>0.002463160955284853</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3701344876652648</v>
+        <v>0.894748634576402</v>
       </c>
       <c r="J9">
-        <v>0.06780474094551181</v>
+        <v>0.1809897744726205</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2537999363312764</v>
+        <v>0.3740448462022954</v>
       </c>
       <c r="M9">
-        <v>0.4928443855319884</v>
+        <v>0.3304984600846339</v>
       </c>
       <c r="N9">
-        <v>0.8058002872592311</v>
+        <v>1.525027463618777</v>
       </c>
       <c r="O9">
-        <v>2.090312491416938</v>
+        <v>3.739399178452118</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.155361488181427</v>
+        <v>1.407230593092322</v>
       </c>
       <c r="C10">
-        <v>0.5001491810173491</v>
+        <v>0.2015793245740554</v>
       </c>
       <c r="D10">
-        <v>0.07539237054970727</v>
+        <v>0.1586332563138981</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8838018336349052</v>
+        <v>1.509756709839039</v>
       </c>
       <c r="G10">
-        <v>0.000790791568001048</v>
+        <v>0.002459000764525984</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3745334313110718</v>
+        <v>0.8850157517982495</v>
       </c>
       <c r="J10">
-        <v>0.06483338565236352</v>
+        <v>0.179322154455904</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2865192950529405</v>
+        <v>0.38036020872714</v>
       </c>
       <c r="M10">
-        <v>0.5818508242580407</v>
+        <v>0.354628518854085</v>
       </c>
       <c r="N10">
-        <v>0.7664210485170173</v>
+        <v>1.50641321187188</v>
       </c>
       <c r="O10">
-        <v>2.262508546793356</v>
+        <v>3.737757202606076</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.383092050447942</v>
+        <v>1.472633263151067</v>
       </c>
       <c r="C11">
-        <v>0.5311713812361631</v>
+        <v>0.2114221689823239</v>
       </c>
       <c r="D11">
-        <v>0.07772837045042991</v>
+        <v>0.1588720463517177</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9154656442246534</v>
+        <v>1.510375289588595</v>
       </c>
       <c r="G11">
-        <v>0.0007879047641373827</v>
+        <v>0.002457201092715891</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3776398602052637</v>
+        <v>0.881058652246054</v>
       </c>
       <c r="J11">
-        <v>0.0635354452376804</v>
+        <v>0.1786013196243648</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3016812727495335</v>
+        <v>0.3833655406031795</v>
       </c>
       <c r="M11">
-        <v>0.6226455712613799</v>
+        <v>0.3656959449676052</v>
       </c>
       <c r="N11">
-        <v>0.7498152137099794</v>
+        <v>1.4984949210289</v>
       </c>
       <c r="O11">
-        <v>2.346486793416062</v>
+        <v>3.739146207142568</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.469530514275391</v>
+        <v>1.497427051377088</v>
       </c>
       <c r="C12">
-        <v>0.5429329281291189</v>
+        <v>0.2151403101790095</v>
       </c>
       <c r="D12">
-        <v>0.07862240115994013</v>
+        <v>0.1589683278128149</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9277634973350644</v>
+        <v>1.510724616142127</v>
       </c>
       <c r="G12">
-        <v>0.0007868221009518432</v>
+        <v>0.002456532882311453</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3789861513096326</v>
+        <v>0.8796278537702733</v>
       </c>
       <c r="J12">
-        <v>0.06305176436759297</v>
+        <v>0.1783337729366918</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3074661650337589</v>
+        <v>0.3845225115056081</v>
       </c>
       <c r="M12">
-        <v>0.6381437070485774</v>
+        <v>0.3698996747289129</v>
       </c>
       <c r="N12">
-        <v>0.7437243045214998</v>
+        <v>1.495575378504533</v>
       </c>
       <c r="O12">
-        <v>2.379166280910965</v>
+        <v>3.739979331112664</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.450904957573982</v>
+        <v>1.49208607958326</v>
       </c>
       <c r="C13">
-        <v>0.5403991714223366</v>
+        <v>0.21433995059013</v>
       </c>
       <c r="D13">
-        <v>0.07842942777268291</v>
+        <v>0.1589473319828301</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9251008862776189</v>
+        <v>1.510644265417454</v>
       </c>
       <c r="G13">
-        <v>0.0007870548122143555</v>
+        <v>0.002456676203367732</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3786884615225858</v>
+        <v>0.8799329918813257</v>
       </c>
       <c r="J13">
-        <v>0.06315558433464652</v>
+        <v>0.1783911531658982</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3062182983413209</v>
+        <v>0.384272497821101</v>
       </c>
       <c r="M13">
-        <v>0.6348035773348357</v>
+        <v>0.3689937644065751</v>
       </c>
       <c r="N13">
-        <v>0.7450271590882096</v>
+        <v>1.496200644224068</v>
       </c>
       <c r="O13">
-        <v>2.372087970343244</v>
+        <v>3.739786243061133</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.3901991669116</v>
+        <v>1.474672526414793</v>
       </c>
       <c r="C14">
-        <v>0.5321387030473659</v>
+        <v>0.2117282466072368</v>
       </c>
       <c r="D14">
-        <v>0.07780173083129682</v>
+        <v>0.1588798503185629</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9164710999797876</v>
+        <v>1.510401722940429</v>
       </c>
       <c r="G14">
-        <v>0.0007878154849431951</v>
+        <v>0.002457145852573758</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.377747148581328</v>
+        <v>0.8809395832820428</v>
       </c>
       <c r="J14">
-        <v>0.06349549523074849</v>
+        <v>0.1785791998957276</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3021563093769117</v>
+        <v>0.3834603469042719</v>
       </c>
       <c r="M14">
-        <v>0.6239195722646045</v>
+        <v>0.366041534728744</v>
       </c>
       <c r="N14">
-        <v>0.7493101003065448</v>
+        <v>1.498253146740232</v>
       </c>
       <c r="O14">
-        <v>2.349157343125341</v>
+        <v>3.739208593302351</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.353042346709913</v>
+        <v>1.464009720862123</v>
       </c>
       <c r="C15">
-        <v>0.5270808940106519</v>
+        <v>0.2101273086735773</v>
       </c>
       <c r="D15">
-        <v>0.07741849248282762</v>
+        <v>0.1588392774857041</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9112258393800374</v>
+        <v>1.5102681434049</v>
       </c>
       <c r="G15">
-        <v>0.000788282773076452</v>
+        <v>0.002457435254764234</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.377193039469276</v>
+        <v>0.881564962733421</v>
       </c>
       <c r="J15">
-        <v>0.06370472181798714</v>
+        <v>0.1786950890939476</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.299673979310171</v>
+        <v>0.3829653407659208</v>
       </c>
       <c r="M15">
-        <v>0.6172595133151475</v>
+        <v>0.3642348589450393</v>
       </c>
       <c r="N15">
-        <v>0.7519595129990222</v>
+        <v>1.499520642580357</v>
       </c>
       <c r="O15">
-        <v>2.335228176539829</v>
+        <v>3.738894764312732</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.140505294372474</v>
+        <v>1.402960267431354</v>
       </c>
       <c r="C16">
-        <v>0.4981235495800433</v>
+        <v>0.2009348026668647</v>
       </c>
       <c r="D16">
-        <v>0.07524100095562858</v>
+        <v>0.158618472425502</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8817742951718657</v>
+        <v>1.50973239323541</v>
       </c>
       <c r="G16">
-        <v>0.0007909817235259757</v>
+        <v>0.002459120239874947</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3743535855437017</v>
+        <v>0.8852838257522819</v>
       </c>
       <c r="J16">
-        <v>0.06491929840283817</v>
+        <v>0.1793700216131899</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2855343021278998</v>
+        <v>0.3801664573405645</v>
       </c>
       <c r="M16">
-        <v>0.5791914501543118</v>
+        <v>0.3539070341637043</v>
       </c>
       <c r="N16">
-        <v>0.7675333781352265</v>
+        <v>1.506941741055037</v>
       </c>
       <c r="O16">
-        <v>2.257139589703797</v>
+        <v>3.737709407919453</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.010446904305581</v>
+        <v>1.365558533179978</v>
       </c>
       <c r="C17">
-        <v>0.4803797708766808</v>
+        <v>0.195279408228572</v>
       </c>
       <c r="D17">
-        <v>0.07392146030461788</v>
+        <v>0.1584934871761732</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8642298381868159</v>
+        <v>1.509608799570955</v>
       </c>
       <c r="G17">
-        <v>0.0007926566585375599</v>
+        <v>0.002460177653065234</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3729023810350967</v>
+        <v>0.8876857329692953</v>
       </c>
       <c r="J17">
-        <v>0.06567823153436247</v>
+        <v>0.1797937356309349</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2769335849726957</v>
+        <v>0.3784832633842399</v>
       </c>
       <c r="M17">
-        <v>0.5559203509001023</v>
+        <v>0.3475942357759294</v>
       </c>
       <c r="N17">
-        <v>0.7774288591842264</v>
+        <v>1.511635018619003</v>
       </c>
       <c r="O17">
-        <v>2.210726902525295</v>
+        <v>3.737529291951518</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.935750978563817</v>
+        <v>1.344064963239362</v>
       </c>
       <c r="C18">
-        <v>0.4701802870311838</v>
+        <v>0.192020713846432</v>
       </c>
       <c r="D18">
-        <v>0.07316832375246918</v>
+        <v>0.1584254591531362</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8543238371849498</v>
+        <v>1.509613102731393</v>
       </c>
       <c r="G18">
-        <v>0.0007936272455438695</v>
+        <v>0.00246079458957754</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3721710245402612</v>
+        <v>0.8891115250342523</v>
       </c>
       <c r="J18">
-        <v>0.06611980264643602</v>
+        <v>0.1800410010130253</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2720126062849886</v>
+        <v>0.3775276084303272</v>
       </c>
       <c r="M18">
-        <v>0.5425637692310872</v>
+        <v>0.3439718202485409</v>
       </c>
       <c r="N18">
-        <v>0.7832430018026031</v>
+        <v>1.514386185870535</v>
       </c>
       <c r="O18">
-        <v>2.184558653326121</v>
+        <v>3.73762674009285</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.910478260790399</v>
+        <v>1.336790906130886</v>
       </c>
       <c r="C19">
-        <v>0.4667278733837747</v>
+        <v>0.1909163741909765</v>
       </c>
       <c r="D19">
-        <v>0.07291431139017845</v>
+        <v>0.158403090157563</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8510009673544943</v>
+        <v>1.509627510811853</v>
       </c>
       <c r="G19">
-        <v>0.0007939571213097026</v>
+        <v>0.002461004976838375</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3719408244330431</v>
+        <v>0.8896018779809864</v>
       </c>
       <c r="J19">
-        <v>0.06627017611420971</v>
+        <v>0.180125332047413</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2703507994398109</v>
+        <v>0.3772061863556218</v>
       </c>
       <c r="M19">
-        <v>0.5380461472661295</v>
+        <v>0.342746807858866</v>
       </c>
       <c r="N19">
-        <v>0.7852323411007092</v>
+        <v>1.515326568497827</v>
       </c>
       <c r="O19">
-        <v>2.17578709781273</v>
+        <v>3.737694264463357</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.024280221164702</v>
+        <v>1.369538064858318</v>
       </c>
       <c r="C20">
-        <v>0.4822679488393646</v>
+        <v>0.1958820423906786</v>
       </c>
       <c r="D20">
-        <v>0.07406132103079699</v>
+        <v>0.1585063928239592</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8660781597662748</v>
+        <v>1.509614154269869</v>
       </c>
       <c r="G20">
-        <v>0.000792477616067069</v>
+        <v>0.002460064185515257</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3730460916993366</v>
+        <v>0.8874254630285634</v>
       </c>
       <c r="J20">
-        <v>0.06559691819871016</v>
+        <v>0.1797482625903672</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2778464385766171</v>
+        <v>0.3786611522025254</v>
       </c>
       <c r="M20">
-        <v>0.5583946230136689</v>
+        <v>0.3482653622309684</v>
       </c>
       <c r="N20">
-        <v>0.7763627222969589</v>
+        <v>1.511130059055255</v>
       </c>
       <c r="O20">
-        <v>2.215612588941951</v>
+        <v>3.737527658141943</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.408024196909139</v>
+        <v>1.479786582746101</v>
       </c>
       <c r="C21">
-        <v>0.5345645851956817</v>
+        <v>0.2124956164566072</v>
       </c>
       <c r="D21">
-        <v>0.07798584044200396</v>
+        <v>0.1588995126609518</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9189973464764876</v>
+        <v>1.510469840895354</v>
       </c>
       <c r="G21">
-        <v>0.000787591775536208</v>
+        <v>0.002457007545152814</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3780189311264834</v>
+        <v>0.8806420862969944</v>
       </c>
       <c r="J21">
-        <v>0.06339544214165649</v>
+        <v>0.1785238190860126</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3033482080947039</v>
+        <v>0.3836983829344547</v>
       </c>
       <c r="M21">
-        <v>0.6271150587267016</v>
+        <v>0.3669083327674656</v>
       </c>
       <c r="N21">
-        <v>0.7480466634785827</v>
+        <v>1.497648135017883</v>
       </c>
       <c r="O21">
-        <v>2.355868218659936</v>
+        <v>3.739369927474769</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.660015393769072</v>
+        <v>1.55199828543681</v>
       </c>
       <c r="C22">
-        <v>0.5688278920483185</v>
+        <v>0.2233002539122992</v>
       </c>
       <c r="D22">
-        <v>0.08060600451262445</v>
+        <v>0.1591905602816013</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9553867276168262</v>
+        <v>1.511699837709671</v>
       </c>
       <c r="G22">
-        <v>0.00078445960322124</v>
+        <v>0.002455087268075196</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3822652375767959</v>
+        <v>0.8766031953391078</v>
       </c>
       <c r="J22">
-        <v>0.06200228316365752</v>
+        <v>0.1777551472598073</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3202697124003322</v>
+        <v>0.3871007075607906</v>
       </c>
       <c r="M22">
-        <v>0.6723227578999484</v>
+        <v>0.3791666934745521</v>
       </c>
       <c r="N22">
-        <v>0.7306955869645009</v>
+        <v>1.489297027768778</v>
       </c>
       <c r="O22">
-        <v>2.452689863488587</v>
+        <v>3.742364187856253</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.525403172981385</v>
+        <v>1.513443600706637</v>
       </c>
       <c r="C23">
-        <v>0.5505317386931097</v>
+        <v>0.2175385452325997</v>
       </c>
       <c r="D23">
-        <v>0.07920234731803788</v>
+        <v>0.1590321128504044</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9357921680096553</v>
+        <v>1.510982019744318</v>
       </c>
       <c r="G23">
-        <v>0.0007861258804780015</v>
+        <v>0.002456105092827154</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3799039134828845</v>
+        <v>0.8787227294516384</v>
       </c>
       <c r="J23">
-        <v>0.06274163116237652</v>
+        <v>0.1781625175640187</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3112138903928496</v>
+        <v>0.385274781532317</v>
       </c>
       <c r="M23">
-        <v>0.6481654189869417</v>
+        <v>0.3726174891138214</v>
       </c>
       <c r="N23">
-        <v>0.7398472690288003</v>
+        <v>1.493712091069632</v>
       </c>
       <c r="O23">
-        <v>2.40051916402723</v>
+        <v>3.740602291706352</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.018025942996132</v>
+        <v>1.367738889856525</v>
       </c>
       <c r="C24">
-        <v>0.4814142987480068</v>
+        <v>0.1956096143170498</v>
       </c>
       <c r="D24">
-        <v>0.07399807294840599</v>
+        <v>0.1585005462558371</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8652419729164791</v>
+        <v>1.509611498665777</v>
       </c>
       <c r="G24">
-        <v>0.0007925585372997379</v>
+        <v>0.002460115456156165</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3729808002336341</v>
+        <v>0.887542991197563</v>
       </c>
       <c r="J24">
-        <v>0.06563366361102663</v>
+        <v>0.1797688095297643</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2774336639360229</v>
+        <v>0.3785806911690344</v>
       </c>
       <c r="M24">
-        <v>0.5572759356433536</v>
+        <v>0.3479619244576</v>
       </c>
       <c r="N24">
-        <v>0.7768443338235969</v>
+        <v>1.511358186364284</v>
       </c>
       <c r="O24">
-        <v>2.213402170939418</v>
+        <v>3.737527770683755</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.474845220437544</v>
+        <v>1.211301734018207</v>
       </c>
       <c r="C25">
-        <v>0.4070854757993345</v>
+        <v>0.1717322012089539</v>
       </c>
       <c r="D25">
-        <v>0.06860553460398933</v>
+        <v>0.1580748949221729</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7961404059721033</v>
+        <v>1.511015804109775</v>
       </c>
       <c r="G25">
-        <v>0.0007997744550394253</v>
+        <v>0.002464775702763682</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3694253091326694</v>
+        <v>0.8987498490143935</v>
       </c>
       <c r="J25">
-        <v>0.06894603808451727</v>
+        <v>0.1816374813314994</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2419753549325492</v>
+        <v>0.3718374093605235</v>
       </c>
       <c r="M25">
-        <v>0.4602988741951677</v>
+        <v>0.3216944228817056</v>
       </c>
       <c r="N25">
-        <v>0.8214034790005087</v>
+        <v>1.532369975524915</v>
       </c>
       <c r="O25">
-        <v>2.031484425617691</v>
+        <v>3.741897659964224</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_120/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.096773137147352</v>
+        <v>2.077323151521966</v>
       </c>
       <c r="C2">
-        <v>0.1539609373135704</v>
+        <v>0.3524020595892523</v>
       </c>
       <c r="D2">
-        <v>0.1578897478055623</v>
+        <v>0.06480775418284423</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.51453054433793</v>
+        <v>0.7505066358358121</v>
       </c>
       <c r="G2">
-        <v>0.00246849754527558</v>
+        <v>0.0008053427536541495</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9084574317527583</v>
+        <v>0.3697976049293032</v>
       </c>
       <c r="J2">
-        <v>0.183131137133727</v>
+        <v>0.07154804645326696</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3672861355196133</v>
+        <v>0.2165873015991764</v>
       </c>
       <c r="M2">
-        <v>0.3026410078799415</v>
+        <v>0.3895851446722105</v>
       </c>
       <c r="N2">
-        <v>1.549546798466331</v>
+        <v>0.8579046644771182</v>
       </c>
       <c r="O2">
-        <v>3.751721784098265</v>
+        <v>1.912373977253424</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019581426637899</v>
+        <v>1.808926169278294</v>
       </c>
       <c r="C3">
-        <v>0.1417995896655668</v>
+        <v>0.3153037362457241</v>
       </c>
       <c r="D3">
-        <v>0.157844914693321</v>
+        <v>0.06233375988851719</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.518461065220563</v>
+        <v>0.7224974830729209</v>
       </c>
       <c r="G3">
-        <v>0.002471202567580878</v>
+        <v>0.0008092834612113409</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9159447299479808</v>
+        <v>0.3717429005166011</v>
       </c>
       <c r="J3">
-        <v>0.1842172475221937</v>
+        <v>0.073411902311729</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.364461574930921</v>
+        <v>0.1997747502695759</v>
       </c>
       <c r="M3">
-        <v>0.2899106986700275</v>
+        <v>0.3419912591516621</v>
       </c>
       <c r="N3">
-        <v>1.56225450252002</v>
+        <v>0.8848033593360327</v>
       </c>
       <c r="O3">
-        <v>3.762499558357945</v>
+        <v>1.839853945272552</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.972402053314255</v>
+        <v>1.64447652750772</v>
       </c>
       <c r="C4">
-        <v>0.1342750391756766</v>
+        <v>0.2924863225397587</v>
       </c>
       <c r="D4">
-        <v>0.1578573912103813</v>
+        <v>0.06086153949674511</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.521638764243704</v>
+        <v>0.706629670601103</v>
       </c>
       <c r="G4">
-        <v>0.00247295405883674</v>
+        <v>0.0008117878652445673</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9209900786908598</v>
+        <v>0.3737191880825996</v>
       </c>
       <c r="J4">
-        <v>0.1849206735593469</v>
+        <v>0.07460544103736</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.362856146443491</v>
+        <v>0.1896287714825746</v>
       </c>
       <c r="M4">
-        <v>0.2821854883637442</v>
+        <v>0.312900654631953</v>
       </c>
       <c r="N4">
-        <v>1.570584180868352</v>
+        <v>0.9023415640876422</v>
       </c>
       <c r="O4">
-        <v>3.771149280661717</v>
+        <v>1.799049161953491</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.953231986318599</v>
+        <v>1.577529535850857</v>
       </c>
       <c r="C5">
-        <v>0.1311944232397622</v>
+        <v>0.2831756788192479</v>
       </c>
       <c r="D5">
-        <v>0.1578725727828179</v>
+        <v>0.06027304735433603</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.523126026618989</v>
+        <v>0.7004825748783645</v>
       </c>
       <c r="G5">
-        <v>0.002473690654212915</v>
+        <v>0.0008128300859785442</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9231587920337887</v>
+        <v>0.3747136317699571</v>
       </c>
       <c r="J5">
-        <v>0.1852165328098456</v>
+        <v>0.07510410428039993</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3622344520923448</v>
+        <v>0.185536406577171</v>
       </c>
       <c r="M5">
-        <v>0.2790606151399828</v>
+        <v>0.3010752219332247</v>
       </c>
       <c r="N5">
-        <v>1.574111255064992</v>
+        <v>0.9097393274089143</v>
       </c>
       <c r="O5">
-        <v>3.775185225898724</v>
+        <v>1.783311804508998</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.950052230360285</v>
+        <v>1.566416565419587</v>
       </c>
       <c r="C6">
-        <v>0.1306820297694173</v>
+        <v>0.2816288345241844</v>
       </c>
       <c r="D6">
-        <v>0.1578757046378882</v>
+        <v>0.06017601105600079</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.523384604968214</v>
+        <v>0.6994806986264024</v>
       </c>
       <c r="G6">
-        <v>0.002473814347428035</v>
+        <v>0.0008130044634465095</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9235257119003144</v>
+        <v>0.3748899655843836</v>
       </c>
       <c r="J6">
-        <v>0.1852662166097043</v>
+        <v>0.07518764711641124</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3621331887405148</v>
+        <v>0.1848593563933818</v>
       </c>
       <c r="M6">
-        <v>0.2785431421710172</v>
+        <v>0.2991132695652183</v>
       </c>
       <c r="N6">
-        <v>1.574704939136581</v>
+        <v>0.9109826909385177</v>
       </c>
       <c r="O6">
-        <v>3.775886265045386</v>
+        <v>1.780751156322935</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9721432908072529</v>
+        <v>1.643573408614714</v>
       </c>
       <c r="C7">
-        <v>0.1342335506258081</v>
+        <v>0.2923608092927452</v>
       </c>
       <c r="D7">
-        <v>0.1578575550195573</v>
+        <v>0.06085355694284189</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.521658043107195</v>
+        <v>0.7065454960653526</v>
       </c>
       <c r="G7">
-        <v>0.002472963900289555</v>
+        <v>0.0008118018329499808</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9210188704159599</v>
+        <v>0.3737318435635224</v>
       </c>
       <c r="J7">
-        <v>0.1849246263177271</v>
+        <v>0.07461211652181676</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3628476301702719</v>
+        <v>0.1895734124956334</v>
       </c>
       <c r="M7">
-        <v>0.2821432508893409</v>
+        <v>0.3127410595393201</v>
       </c>
       <c r="N7">
-        <v>1.570631210917696</v>
+        <v>0.9024403254673388</v>
       </c>
       <c r="O7">
-        <v>3.771201641198843</v>
+        <v>1.79883337332592</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.070113303811297</v>
+        <v>1.984695500060752</v>
       </c>
       <c r="C8">
-        <v>0.1497797066108149</v>
+        <v>0.3396170139021137</v>
       </c>
       <c r="D8">
-        <v>0.1578660089452981</v>
+        <v>0.06394480178359885</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.515727220004457</v>
+        <v>0.7405636443208365</v>
       </c>
       <c r="G8">
-        <v>0.002469411474126048</v>
+        <v>0.0008066841161182367</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9109460512667624</v>
+        <v>0.3703014359705676</v>
       </c>
       <c r="J8">
-        <v>0.1834980521680434</v>
+        <v>0.07218046825911184</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3662855561311176</v>
+        <v>0.2107521707657867</v>
       </c>
       <c r="M8">
-        <v>0.2982328137322057</v>
+        <v>0.3731448203035441</v>
       </c>
       <c r="N8">
-        <v>1.553819087656365</v>
+        <v>0.866963296650141</v>
       </c>
       <c r="O8">
-        <v>3.755016257005337</v>
+        <v>1.886568502342016</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.263898127792743</v>
+        <v>2.657370117658843</v>
       </c>
       <c r="C9">
-        <v>0.1798050731755723</v>
+        <v>0.4321069156269175</v>
       </c>
       <c r="D9">
-        <v>0.1581984354951231</v>
+        <v>0.07039407750205129</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.510157527044797</v>
+        <v>0.8185530772537675</v>
       </c>
       <c r="G9">
-        <v>0.002463160955284853</v>
+        <v>0.0007973051904318784</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.894748634576402</v>
+        <v>0.3701344876653039</v>
       </c>
       <c r="J9">
-        <v>0.1809897744726205</v>
+        <v>0.06780474094544608</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3740448462022954</v>
+        <v>0.253799936331248</v>
       </c>
       <c r="M9">
-        <v>0.3304984600846339</v>
+        <v>0.4928443855319955</v>
       </c>
       <c r="N9">
-        <v>1.525027463618777</v>
+        <v>0.8058002872592382</v>
       </c>
       <c r="O9">
-        <v>3.739399178452118</v>
+        <v>2.090312491416995</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.407230593092322</v>
+        <v>3.155361488181427</v>
       </c>
       <c r="C10">
-        <v>0.2015793245740554</v>
+        <v>0.5001491810172354</v>
       </c>
       <c r="D10">
-        <v>0.1586332563138981</v>
+        <v>0.07539237054969306</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.509756709839039</v>
+        <v>0.8838018336349052</v>
       </c>
       <c r="G10">
-        <v>0.002459000764525984</v>
+        <v>0.0007907915679995781</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8850157517982495</v>
+        <v>0.3745334313110575</v>
       </c>
       <c r="J10">
-        <v>0.179322154455904</v>
+        <v>0.06483338565228713</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.38036020872714</v>
+        <v>0.2865192950530258</v>
       </c>
       <c r="M10">
-        <v>0.354628518854085</v>
+        <v>0.5818508242580407</v>
       </c>
       <c r="N10">
-        <v>1.50641321187188</v>
+        <v>0.766421048517067</v>
       </c>
       <c r="O10">
-        <v>3.737757202606076</v>
+        <v>2.262508546793356</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.472633263151067</v>
+        <v>3.383092050447999</v>
       </c>
       <c r="C11">
-        <v>0.2114221689823239</v>
+        <v>0.5311713812361916</v>
       </c>
       <c r="D11">
-        <v>0.1588720463517177</v>
+        <v>0.07772837045042991</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.510375289588595</v>
+        <v>0.9154656442246534</v>
       </c>
       <c r="G11">
-        <v>0.002457201092715891</v>
+        <v>0.0007879047641082253</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.881058652246054</v>
+        <v>0.3776398602052637</v>
       </c>
       <c r="J11">
-        <v>0.1786013196243648</v>
+        <v>0.06353544523773902</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3833655406031795</v>
+        <v>0.3016812727494909</v>
       </c>
       <c r="M11">
-        <v>0.3656959449676052</v>
+        <v>0.622645571261387</v>
       </c>
       <c r="N11">
-        <v>1.4984949210289</v>
+        <v>0.7498152137099794</v>
       </c>
       <c r="O11">
-        <v>3.739146207142568</v>
+        <v>2.346486793416034</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.497427051377088</v>
+        <v>3.469530514275334</v>
       </c>
       <c r="C12">
-        <v>0.2151403101790095</v>
+        <v>0.5429329281294599</v>
       </c>
       <c r="D12">
-        <v>0.1589683278128149</v>
+        <v>0.07862240115980512</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.510724616142127</v>
+        <v>0.9277634973350644</v>
       </c>
       <c r="G12">
-        <v>0.002456532882311453</v>
+        <v>0.0007868221009215515</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8796278537702733</v>
+        <v>0.3789861513096326</v>
       </c>
       <c r="J12">
-        <v>0.1783337729366918</v>
+        <v>0.06305176436758408</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3845225115056081</v>
+        <v>0.3074661650336594</v>
       </c>
       <c r="M12">
-        <v>0.3698996747289129</v>
+        <v>0.6381437070485916</v>
       </c>
       <c r="N12">
-        <v>1.495575378504533</v>
+        <v>0.7437243045214785</v>
       </c>
       <c r="O12">
-        <v>3.739979331112664</v>
+        <v>2.379166280911022</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.49208607958326</v>
+        <v>3.450904957573982</v>
       </c>
       <c r="C13">
-        <v>0.21433995059013</v>
+        <v>0.540399171422365</v>
       </c>
       <c r="D13">
-        <v>0.1589473319828301</v>
+        <v>0.07842942777269002</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.510644265417454</v>
+        <v>0.9251008862776189</v>
       </c>
       <c r="G13">
-        <v>0.002456676203367732</v>
+        <v>0.0007870548122145159</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8799329918813257</v>
+        <v>0.3786884615225858</v>
       </c>
       <c r="J13">
-        <v>0.1783911531658982</v>
+        <v>0.06315558433460922</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.384272497821101</v>
+        <v>0.3062182983413209</v>
       </c>
       <c r="M13">
-        <v>0.3689937644065751</v>
+        <v>0.6348035773348357</v>
       </c>
       <c r="N13">
-        <v>1.496200644224068</v>
+        <v>0.7450271590882096</v>
       </c>
       <c r="O13">
-        <v>3.739786243061133</v>
+        <v>2.372087970343216</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.474672526414793</v>
+        <v>3.390199166911714</v>
       </c>
       <c r="C14">
-        <v>0.2117282466072368</v>
+        <v>0.5321387030477354</v>
       </c>
       <c r="D14">
-        <v>0.1588798503185629</v>
+        <v>0.07780173083136077</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.510401722940429</v>
+        <v>0.9164710999797876</v>
       </c>
       <c r="G14">
-        <v>0.002457145852573758</v>
+        <v>0.0007878154849134317</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8809395832820428</v>
+        <v>0.377747148581328</v>
       </c>
       <c r="J14">
-        <v>0.1785791998957276</v>
+        <v>0.06349549523080444</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3834603469042719</v>
+        <v>0.3021563093768691</v>
       </c>
       <c r="M14">
-        <v>0.366041534728744</v>
+        <v>0.6239195722646116</v>
       </c>
       <c r="N14">
-        <v>1.498253146740232</v>
+        <v>0.7493101003065377</v>
       </c>
       <c r="O14">
-        <v>3.739208593302351</v>
+        <v>2.349157343125341</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.464009720862123</v>
+        <v>3.353042346709969</v>
       </c>
       <c r="C15">
-        <v>0.2101273086735773</v>
+        <v>0.5270808940106519</v>
       </c>
       <c r="D15">
-        <v>0.1588392774857041</v>
+        <v>0.07741849248276367</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.5102681434049</v>
+        <v>0.9112258393800374</v>
       </c>
       <c r="G15">
-        <v>0.002457435254764234</v>
+        <v>0.0007882827730467734</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.881564962733421</v>
+        <v>0.377193039469276</v>
       </c>
       <c r="J15">
-        <v>0.1786950890939476</v>
+        <v>0.06370472181798448</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3829653407659208</v>
+        <v>0.299673979310171</v>
       </c>
       <c r="M15">
-        <v>0.3642348589450393</v>
+        <v>0.6172595133151333</v>
       </c>
       <c r="N15">
-        <v>1.499520642580357</v>
+        <v>0.7519595129990151</v>
       </c>
       <c r="O15">
-        <v>3.738894764312732</v>
+        <v>2.335228176539829</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.402960267431354</v>
+        <v>3.140505294372304</v>
       </c>
       <c r="C16">
-        <v>0.2009348026668647</v>
+        <v>0.498123549579816</v>
       </c>
       <c r="D16">
-        <v>0.158618472425502</v>
+        <v>0.07524100095545805</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.50973239323541</v>
+        <v>0.8817742951718799</v>
       </c>
       <c r="G16">
-        <v>0.002459120239874947</v>
+        <v>0.0007909817235255879</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8852838257522819</v>
+        <v>0.3743535855437017</v>
       </c>
       <c r="J16">
-        <v>0.1793700216131899</v>
+        <v>0.06491929840295185</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3801664573405645</v>
+        <v>0.2855343021279282</v>
       </c>
       <c r="M16">
-        <v>0.3539070341637043</v>
+        <v>0.5791914501543118</v>
       </c>
       <c r="N16">
-        <v>1.506941741055037</v>
+        <v>0.7675333781352265</v>
       </c>
       <c r="O16">
-        <v>3.737709407919453</v>
+        <v>2.257139589703797</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.365558533179978</v>
+        <v>3.010446904305468</v>
       </c>
       <c r="C17">
-        <v>0.195279408228572</v>
+        <v>0.4803797708764819</v>
       </c>
       <c r="D17">
-        <v>0.1584934871761732</v>
+        <v>0.0739214603043763</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.509608799570955</v>
+        <v>0.8642298381867874</v>
       </c>
       <c r="G17">
-        <v>0.002460177653065234</v>
+        <v>0.000792656658537965</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8876857329692953</v>
+        <v>0.3729023810351038</v>
       </c>
       <c r="J17">
-        <v>0.1797937356309349</v>
+        <v>0.06567823153442731</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3784832633842399</v>
+        <v>0.2769335849727241</v>
       </c>
       <c r="M17">
-        <v>0.3475942357759294</v>
+        <v>0.5559203509001094</v>
       </c>
       <c r="N17">
-        <v>1.511635018619003</v>
+        <v>0.7774288591841483</v>
       </c>
       <c r="O17">
-        <v>3.737529291951518</v>
+        <v>2.210726902525266</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.344064963239362</v>
+        <v>2.935750978563647</v>
       </c>
       <c r="C18">
-        <v>0.192020713846432</v>
+        <v>0.4701802870312122</v>
       </c>
       <c r="D18">
-        <v>0.1584254591531362</v>
+        <v>0.07316832375246207</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.509613102731393</v>
+        <v>0.8543238371849213</v>
       </c>
       <c r="G18">
-        <v>0.00246079458957754</v>
+        <v>0.0007936272455144348</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8891115250342523</v>
+        <v>0.372171024540247</v>
       </c>
       <c r="J18">
-        <v>0.1800410010130253</v>
+        <v>0.06611980264637474</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3775276084303272</v>
+        <v>0.2720126062849459</v>
       </c>
       <c r="M18">
-        <v>0.3439718202485409</v>
+        <v>0.5425637692311014</v>
       </c>
       <c r="N18">
-        <v>1.514386185870535</v>
+        <v>0.7832430018025249</v>
       </c>
       <c r="O18">
-        <v>3.73762674009285</v>
+        <v>2.184558653326036</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.336790906130886</v>
+        <v>2.910478260790512</v>
       </c>
       <c r="C19">
-        <v>0.1909163741909765</v>
+        <v>0.4667278733838032</v>
       </c>
       <c r="D19">
-        <v>0.158403090157563</v>
+        <v>0.07291431139000792</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.509627510811853</v>
+        <v>0.8510009673544801</v>
       </c>
       <c r="G19">
-        <v>0.002461004976838375</v>
+        <v>0.0007939571213375549</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8896018779809864</v>
+        <v>0.3719408244330573</v>
       </c>
       <c r="J19">
-        <v>0.180125332047413</v>
+        <v>0.06627017611415909</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3772061863556218</v>
+        <v>0.2703507994396972</v>
       </c>
       <c r="M19">
-        <v>0.342746807858866</v>
+        <v>0.5380461472661366</v>
       </c>
       <c r="N19">
-        <v>1.515326568497827</v>
+        <v>0.7852323411006523</v>
       </c>
       <c r="O19">
-        <v>3.737694264463357</v>
+        <v>2.175787097812702</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.369538064858318</v>
+        <v>3.024280221164645</v>
       </c>
       <c r="C20">
-        <v>0.1958820423906786</v>
+        <v>0.4822679488395067</v>
       </c>
       <c r="D20">
-        <v>0.1585063928239592</v>
+        <v>0.07406132103084673</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.509614154269869</v>
+        <v>0.8660781597663032</v>
       </c>
       <c r="G20">
-        <v>0.002460064185515257</v>
+        <v>0.0007924776160087918</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8874254630285634</v>
+        <v>0.3730460916993508</v>
       </c>
       <c r="J20">
-        <v>0.1797482625903672</v>
+        <v>0.06559691819872793</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3786611522025254</v>
+        <v>0.2778464385766739</v>
       </c>
       <c r="M20">
-        <v>0.3482653622309684</v>
+        <v>0.5583946230136831</v>
       </c>
       <c r="N20">
-        <v>1.511130059055255</v>
+        <v>0.776362722296966</v>
       </c>
       <c r="O20">
-        <v>3.737527658141943</v>
+        <v>2.215612588942037</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.479786582746101</v>
+        <v>3.408024196909082</v>
       </c>
       <c r="C21">
-        <v>0.2124956164566072</v>
+        <v>0.5345645851957954</v>
       </c>
       <c r="D21">
-        <v>0.1588995126609518</v>
+        <v>0.07798584044206081</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.510469840895354</v>
+        <v>0.9189973464765018</v>
       </c>
       <c r="G21">
-        <v>0.002457007545152814</v>
+        <v>0.0007875917755941255</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8806420862969944</v>
+        <v>0.3780189311265048</v>
       </c>
       <c r="J21">
-        <v>0.1785238190860126</v>
+        <v>0.06339544214155257</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3836983829344547</v>
+        <v>0.3033482080946044</v>
       </c>
       <c r="M21">
-        <v>0.3669083327674656</v>
+        <v>0.6271150587266945</v>
       </c>
       <c r="N21">
-        <v>1.497648135017883</v>
+        <v>0.7480466634786396</v>
       </c>
       <c r="O21">
-        <v>3.739369927474769</v>
+        <v>2.355868218659964</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.55199828543681</v>
+        <v>3.660015393769072</v>
       </c>
       <c r="C22">
-        <v>0.2233002539122992</v>
+        <v>0.5688278920485459</v>
       </c>
       <c r="D22">
-        <v>0.1591905602816013</v>
+        <v>0.08060600451262445</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.511699837709671</v>
+        <v>0.9553867276168546</v>
       </c>
       <c r="G22">
-        <v>0.002455087268075196</v>
+        <v>0.0007844596032218619</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8766031953391078</v>
+        <v>0.3822652375767746</v>
       </c>
       <c r="J22">
-        <v>0.1777551472598073</v>
+        <v>0.06200228316366818</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3871007075607906</v>
+        <v>0.3202697124002754</v>
       </c>
       <c r="M22">
-        <v>0.3791666934745521</v>
+        <v>0.6723227578999342</v>
       </c>
       <c r="N22">
-        <v>1.489297027768778</v>
+        <v>0.7306955869645151</v>
       </c>
       <c r="O22">
-        <v>3.742364187856253</v>
+        <v>2.452689863488587</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.513443600706637</v>
+        <v>3.525403172981555</v>
       </c>
       <c r="C23">
-        <v>0.2175385452325997</v>
+        <v>0.5505317386931097</v>
       </c>
       <c r="D23">
-        <v>0.1590321128504044</v>
+        <v>0.07920234731814446</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.510982019744318</v>
+        <v>0.9357921680096695</v>
       </c>
       <c r="G23">
-        <v>0.002456105092827154</v>
+        <v>0.0007861258804488865</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8787227294516384</v>
+        <v>0.3799039134828845</v>
       </c>
       <c r="J23">
-        <v>0.1781625175640187</v>
+        <v>0.06274163116237563</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.385274781532317</v>
+        <v>0.3112138903928781</v>
       </c>
       <c r="M23">
-        <v>0.3726174891138214</v>
+        <v>0.6481654189869701</v>
       </c>
       <c r="N23">
-        <v>1.493712091069632</v>
+        <v>0.7398472690288642</v>
       </c>
       <c r="O23">
-        <v>3.740602291706352</v>
+        <v>2.400519164027173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.367738889856525</v>
+        <v>3.018025942996076</v>
       </c>
       <c r="C24">
-        <v>0.1956096143170498</v>
+        <v>0.4814142987480921</v>
       </c>
       <c r="D24">
-        <v>0.1585005462558371</v>
+        <v>0.07399807294840599</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.509611498665777</v>
+        <v>0.8652419729164791</v>
       </c>
       <c r="G24">
-        <v>0.002460115456156165</v>
+        <v>0.000792558537328721</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.887542991197563</v>
+        <v>0.3729808002336341</v>
       </c>
       <c r="J24">
-        <v>0.1797688095297643</v>
+        <v>0.06563366361110923</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3785806911690344</v>
+        <v>0.2774336639360229</v>
       </c>
       <c r="M24">
-        <v>0.3479619244576</v>
+        <v>0.5572759356433536</v>
       </c>
       <c r="N24">
-        <v>1.511358186364284</v>
+        <v>0.7768443338235826</v>
       </c>
       <c r="O24">
-        <v>3.737527770683755</v>
+        <v>2.213402170939418</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.211301734018207</v>
+        <v>2.474845220437658</v>
       </c>
       <c r="C25">
-        <v>0.1717322012089539</v>
+        <v>0.4070854757993345</v>
       </c>
       <c r="D25">
-        <v>0.1580748949221729</v>
+        <v>0.06860553460357721</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.511015804109775</v>
+        <v>0.7961404059721033</v>
       </c>
       <c r="G25">
-        <v>0.002464775702763682</v>
+        <v>0.0007997744550390648</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8987498490143935</v>
+        <v>0.3694253091326694</v>
       </c>
       <c r="J25">
-        <v>0.1816374813314994</v>
+        <v>0.06894603808454924</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3718374093605235</v>
+        <v>0.2419753549325918</v>
       </c>
       <c r="M25">
-        <v>0.3216944228817056</v>
+        <v>0.4602988741951819</v>
       </c>
       <c r="N25">
-        <v>1.532369975524915</v>
+        <v>0.8214034790005087</v>
       </c>
       <c r="O25">
-        <v>3.741897659964224</v>
+        <v>2.031484425617634</v>
       </c>
     </row>
   </sheetData>
